--- a/Documentation/parkassist-planning.xlsx
+++ b/Documentation/parkassist-planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\ParkAssist\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAD3C54-F57B-405A-BF3D-B0FCAA1370B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65DC9C5-DB40-4C84-A00B-924B9EE9FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{964953C2-7707-427D-BED8-320CB1C80615}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Project Architecture" sheetId="2" r:id="rId2"/>
     <sheet name="Project Plan" sheetId="3" r:id="rId3"/>
     <sheet name="ER Diagram" sheetId="4" r:id="rId4"/>
+    <sheet name="Notes" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project Plan'!$B$3:$D$26</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>BUSINESS RULES</t>
   </si>
@@ -410,13 +411,16 @@
   </si>
   <si>
     <t>Create api endpoints for features</t>
+  </si>
+  <si>
+    <t>PMC command to scaffold database:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,15 +450,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,12 +467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,11 +517,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7240FF94-15AB-410D-9924-8EEF886E7C6B}">
-  <dimension ref="B3:B20"/>
+  <dimension ref="B3:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -961,29 +952,6 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" ht="21.75" x14ac:dyDescent="0.45">
-      <c r="B18" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,13 +1285,13 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1403,4 +1371,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E6531A-80B2-472B-9FBC-7B514E8D31BB}">
+  <dimension ref="B3:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/parkassist-planning.xlsx
+++ b/Documentation/parkassist-planning.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\ParkAssist\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65DC9C5-DB40-4C84-A00B-924B9EE9FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D849C-4944-451F-9043-125443792106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{964953C2-7707-427D-BED8-320CB1C80615}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{964953C2-7707-427D-BED8-320CB1C80615}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Project Architecture" sheetId="2" r:id="rId2"/>
-    <sheet name="Project Plan" sheetId="3" r:id="rId3"/>
-    <sheet name="ER Diagram" sheetId="4" r:id="rId4"/>
-    <sheet name="Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Features" sheetId="6" r:id="rId2"/>
+    <sheet name="Project Architecture" sheetId="2" r:id="rId3"/>
+    <sheet name="Project Plan" sheetId="3" r:id="rId4"/>
+    <sheet name="ER Diagram" sheetId="4" r:id="rId5"/>
+    <sheet name="Notes" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project Plan'!$B$3:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project Plan'!$B$3:$D$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>BUSINESS RULES</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Discounts (including the beyond 24 hour discount, which is applied before any others) are stackable, but discounts beyond the first are taken off the remaining amount, not the original total</t>
   </si>
   <si>
-    <t>Beyond the 24th hour, all hours parked are charged at a 10% discounts</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -414,6 +412,117 @@
   </si>
   <si>
     <t>PMC command to scaffold database:</t>
+  </si>
+  <si>
+    <t>Re-test all api endpoints, incl. data validity</t>
+  </si>
+  <si>
+    <t>Create register and login endpoints</t>
+  </si>
+  <si>
+    <t>Test register and login endpoints</t>
+  </si>
+  <si>
+    <t>Figure out roles</t>
+  </si>
+  <si>
+    <t>Customer portal</t>
+  </si>
+  <si>
+    <t>Register as a customer</t>
+  </si>
+  <si>
+    <t>LogIn as a customer</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t>See registered vehicles</t>
+  </si>
+  <si>
+    <t>Add, update, delete registered vehicles</t>
+  </si>
+  <si>
+    <t>View parking availability by parking lot</t>
+  </si>
+  <si>
+    <t>See status of a vehicle for which parking has been requested (e.g., has it been parked, if so what spot is it in)</t>
+  </si>
+  <si>
+    <t>See parking history by vehicle, parking lot, and all history</t>
+  </si>
+  <si>
+    <t>Valet portal</t>
+  </si>
+  <si>
+    <t>Register as a valet</t>
+  </si>
+  <si>
+    <t>LogIn as a valet</t>
+  </si>
+  <si>
+    <t>See available and occupied parking for assigned parking lot, including vehicle and customer details for occupied parking spots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See parking requests </t>
+  </si>
+  <si>
+    <t>Process parking requests (advances status from ParkingRequested to VehicleParked)</t>
+  </si>
+  <si>
+    <t>Request parking at a specific parking lot (if that lot has available parking); creates parking slip with status ParkingRequested</t>
+  </si>
+  <si>
+    <t>Request pickup of a parked vehicle (advances status from VehicleParked to PickupRequested)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See vehicle pickup requests </t>
+  </si>
+  <si>
+    <t>Process vehicle pickup requests (advances status from PickupRequested to VehiclePickedUp, time out, amount due, and amount paid are calculated)</t>
+  </si>
+  <si>
+    <t>Owner portal</t>
+  </si>
+  <si>
+    <t>Register as an owner</t>
+  </si>
+  <si>
+    <t>LogIn as an owner</t>
+  </si>
+  <si>
+    <t>See info on owned parking lots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See financial information for any or all owned parking lots </t>
+  </si>
+  <si>
+    <t>Create, update, and delete owned parking lots/spots</t>
+  </si>
+  <si>
+    <t>Admin portal</t>
+  </si>
+  <si>
+    <t>View account details, including assigned roles</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Change username</t>
+  </si>
+  <si>
+    <t>Change email</t>
+  </si>
+  <si>
+    <t>Change phone</t>
+  </si>
+  <si>
+    <t>Beyond the 24th hour, all hours parked are charged at a 10% discount</t>
+  </si>
+  <si>
+    <t>Add auth to api endpoints, with roles</t>
   </si>
 </sst>
 </file>
@@ -498,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -517,10 +626,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -528,7 +633,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -890,7 +1004,7 @@
   <dimension ref="B3:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -907,22 +1021,22 @@
     </row>
     <row r="4" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
@@ -945,7 +1059,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
@@ -959,6 +1073,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4FE4CE-162E-499C-A58B-F06A4F236937}">
+  <dimension ref="B3:E13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="5" width="41.19921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F2BBC0-C3BD-48E0-80E9-7D480656C258}">
   <dimension ref="B3:D6"/>
   <sheetViews>
@@ -976,46 +1242,46 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1023,14 +1289,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4006CDA5-83B2-4C02-81FC-BFC8DC94AB1F}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B3:D34"/>
+  <dimension ref="B3:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1044,292 +1310,322 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
@@ -1346,10 +1642,15 @@
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
     </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:D26" xr:uid="{4006CDA5-83B2-4C02-81FC-BFC8DC94AB1F}">
+  <autoFilter ref="B3:D31" xr:uid="{4006CDA5-83B2-4C02-81FC-BFC8DC94AB1F}">
     <filterColumn colId="2">
-      <filters>
+      <filters blank="1">
         <filter val="No"/>
       </filters>
     </filterColumn>
@@ -1358,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB84DB0-6115-4A5F-AFCF-1824FF7E783B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1373,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E6531A-80B2-472B-9FBC-7B514E8D31BB}">
   <dimension ref="B3:C3"/>
   <sheetViews>
@@ -1389,10 +1690,10 @@
   <sheetData>
     <row r="3" spans="2:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/parkassist-planning.xlsx
+++ b/Documentation/parkassist-planning.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\ParkAssist\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D849C-4944-451F-9043-125443792106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15FFF64-13C2-4962-AABB-135B7BF60E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{964953C2-7707-427D-BED8-320CB1C80615}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="692" activeTab="4" xr2:uid="{964953C2-7707-427D-BED8-320CB1C80615}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Features" sheetId="6" r:id="rId2"/>
-    <sheet name="Project Architecture" sheetId="2" r:id="rId3"/>
-    <sheet name="Project Plan" sheetId="3" r:id="rId4"/>
-    <sheet name="ER Diagram" sheetId="4" r:id="rId5"/>
+    <sheet name="ER Diagram" sheetId="4" r:id="rId3"/>
+    <sheet name="Project Architecture" sheetId="2" r:id="rId4"/>
+    <sheet name="Project Plan" sheetId="3" r:id="rId5"/>
     <sheet name="Notes" sheetId="5" r:id="rId6"/>
+    <sheet name="API Endpoint Tests" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project Plan'!$B$3:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Project Plan'!$B$3:$D$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
   <si>
     <t>BUSINESS RULES</t>
   </si>
@@ -524,12 +525,84 @@
   <si>
     <t>Add auth to api endpoints, with roles</t>
   </si>
+  <si>
+    <t>mervin</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>alice</t>
+  </si>
+  <si>
+    <t>valet</t>
+  </si>
+  <si>
+    <t>edna</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>LogIn</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>ParkingLot</t>
+  </si>
+  <si>
+    <t>ParkingSlip</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Valet</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Data complete?</t>
+  </si>
+  <si>
+    <t>Data accurate?</t>
+  </si>
+  <si>
+    <t>Auth and roles work?</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +632,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -580,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -603,11 +699,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,20 +740,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1004,7 +1110,7 @@
   <dimension ref="B3:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1225,6 +1331,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB84DB0-6115-4A5F-AFCF-1824FF7E783B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F2BBC0-C3BD-48E0-80E9-7D480656C258}">
   <dimension ref="B3:D6"/>
   <sheetViews>
@@ -1289,14 +1410,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4006CDA5-83B2-4C02-81FC-BFC8DC94AB1F}">
   <sheetPr filterMode="1"/>
   <dimension ref="B3:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1594,7 +1715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
@@ -1605,15 +1726,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>33</v>
+      <c r="D30" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
@@ -1650,27 +1771,12 @@
   </sheetData>
   <autoFilter ref="B3:D31" xr:uid="{4006CDA5-83B2-4C02-81FC-BFC8DC94AB1F}">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="No"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB84DB0-6115-4A5F-AFCF-1824FF7E783B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1699,4 +1805,201 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938E6ABC-A3D4-448F-9455-766C4ED62894}">
+  <dimension ref="B3:I12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="11"/>
+    <col min="2" max="2" width="13.33203125" style="11" customWidth="1"/>
+    <col min="3" max="5" width="18.86328125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>